--- a/Output/April/productivity_TL/productivity_TL_2022-04-27.xlsx
+++ b/Output/April/productivity_TL/productivity_TL_2022-04-27.xlsx
@@ -1031,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S8">
         <v>79</v>
       </c>
       <c r="T8">
-        <v>0.1012658227848101</v>
+        <v>0.1139240506329114</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1859,10 +1859,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H4">
-        <v>0.009433962264150943</v>
+        <v>0.009708737864077669</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1960,13 +1960,13 @@
         <v>7.466666666666667</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>79</v>
       </c>
       <c r="H8">
-        <v>0.1012658227848101</v>
+        <v>0.1139240506329114</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.009433962264150943</v>
+        <v>0.009708737864077669</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2169,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.1012658227848101</v>
+        <v>0.1139240506329114</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2289,7 +2289,7 @@
         <v>51</v>
       </c>
       <c r="D4">
-        <v>0.009433962264150943</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2357,7 +2357,7 @@
         <v>49</v>
       </c>
       <c r="D8">
-        <v>0.1012658227848101</v>
+        <v>0.1139240506329114</v>
       </c>
       <c r="E8">
         <v>1</v>
